--- a/data/trans_dic/P64D$particular_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Provincia-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.8259804693639435</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7568651744365643</v>
+        <v>0.7568651744365644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7960671234698802</v>
+        <v>0.79606712346988</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7539725307642643</v>
+        <v>0.7543249256044463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6968089402834067</v>
+        <v>0.6929078507593106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7457792001732929</v>
+        <v>0.7508056949577493</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8764972764192059</v>
+        <v>0.8815658920070129</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8127154892969509</v>
+        <v>0.8070828525497995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8356312610447824</v>
+        <v>0.8360258233647677</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7923996767595431</v>
+        <v>0.7923996767595433</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7295430271564021</v>
+        <v>0.729543027156402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.767007562174954</v>
+        <v>0.7670075621749539</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.723806782714661</v>
+        <v>0.720327654874617</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6635088519819159</v>
+        <v>0.6665788402779547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.717704159492442</v>
+        <v>0.7182512016218204</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8513458224142214</v>
+        <v>0.8577016686730009</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7900769785582138</v>
+        <v>0.7863950922179967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8123501014002805</v>
+        <v>0.8123841466400722</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8263962909305408</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6045998517055204</v>
+        <v>0.6045998517055203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.727059716074799</v>
+        <v>0.7270597160747991</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.762077531977131</v>
+        <v>0.7593684858103535</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5188842242245584</v>
+        <v>0.5232059692011052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6769261355190782</v>
+        <v>0.6754433152629132</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.881195561646168</v>
+        <v>0.8766258771480145</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6755052660500852</v>
+        <v>0.6768765106932367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7759803477941808</v>
+        <v>0.7717310833280785</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.6033963640204781</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6402467703157936</v>
+        <v>0.6402467703157937</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5749793778178743</v>
+        <v>0.5699760673576083</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5271048976910555</v>
+        <v>0.5252795824118991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5846383676383248</v>
+        <v>0.5754429875148144</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7512599622982817</v>
+        <v>0.7521644577165932</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6786009347079219</v>
+        <v>0.6731958621525364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6938235328940764</v>
+        <v>0.6971723764226275</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.767474399165437</v>
+        <v>0.7674743991654372</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7640908421606855</v>
+        <v>0.7640908421606853</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7658946075440695</v>
+        <v>0.7658946075440694</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6951622929438611</v>
+        <v>0.6912513193448139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7030385937544478</v>
+        <v>0.7058478517016356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7211996584800192</v>
+        <v>0.7170029472903161</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.832028572600876</v>
+        <v>0.8338097176741096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.820546776364356</v>
+        <v>0.8217019257212591</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8108605187919192</v>
+        <v>0.8055900475801129</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8163644157659357</v>
+        <v>0.8163644157659358</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6420485055613578</v>
+        <v>0.642048505561358</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7481778608031329</v>
+        <v>0.7481778608031328</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7460972830557372</v>
+        <v>0.7526849622034771</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5530784190993601</v>
+        <v>0.5477944285197103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6976954996685197</v>
+        <v>0.6929649122427249</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8767346683348347</v>
+        <v>0.8738781248088079</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7207282905973024</v>
+        <v>0.7203940533244549</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7939739868250314</v>
+        <v>0.7926866214846882</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.7931881650659182</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6411095277787355</v>
+        <v>0.6411095277787353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7198168691487207</v>
+        <v>0.7198168691487205</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7387301664000419</v>
+        <v>0.7439547819261868</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.592952163594279</v>
+        <v>0.5893378265788101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6860218855989223</v>
+        <v>0.6845187632042948</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8371898503131034</v>
+        <v>0.8371174427926508</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6888159122406825</v>
+        <v>0.6845537746327048</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.754162703598402</v>
+        <v>0.7529493890252702</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.3855790498034626</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.495185157910407</v>
+        <v>0.4951851579104071</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5194992610567174</v>
+        <v>0.5205848567221978</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3371054811347901</v>
+        <v>0.3404079257381915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.460087631600946</v>
+        <v>0.4622056891601107</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6180189400153198</v>
+        <v>0.619002836518189</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4377298353153425</v>
+        <v>0.4367911353372352</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5363603373642982</v>
+        <v>0.5347027927101147</v>
       </c>
     </row>
     <row r="28">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.7330281230803117</v>
+        <v>0.733028123080312</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.6119673632375902</v>
+        <v>0.61196736323759</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.679915235718631</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7098972840323038</v>
+        <v>0.7078510502894906</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5897120341572002</v>
+        <v>0.588728593235382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6643020044436981</v>
+        <v>0.6638124359568103</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7553659590487641</v>
+        <v>0.755364499758494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6352494165956197</v>
+        <v>0.6345153015326277</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6961865109463926</v>
+        <v>0.6968185156096185</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>149478</v>
+        <v>149548</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>105413</v>
+        <v>104822</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>260674</v>
+        <v>262431</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>173769</v>
+        <v>174774</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>122947</v>
+        <v>122095</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>292081</v>
+        <v>292219</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>181503</v>
+        <v>180631</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>112768</v>
+        <v>113290</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>301952</v>
+        <v>302182</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>213485</v>
+        <v>215079</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>134279</v>
+        <v>133653</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>341771</v>
+        <v>341785</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>113018</v>
+        <v>112616</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>62421</v>
+        <v>62941</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>181823</v>
+        <v>181425</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>130683</v>
+        <v>130005</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81263</v>
+        <v>81428</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>208429</v>
+        <v>207288</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>119646</v>
+        <v>118605</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>94052</v>
+        <v>93726</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>225974</v>
+        <v>222420</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>156328</v>
+        <v>156516</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121083</v>
+        <v>120119</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>268176</v>
+        <v>269470</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>93486</v>
+        <v>92960</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>82805</v>
+        <v>83136</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>181932</v>
+        <v>180873</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111892</v>
+        <v>112132</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>96646</v>
+        <v>96782</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>204550</v>
+        <v>203221</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>100377</v>
+        <v>101263</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>47806</v>
+        <v>47350</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>154172</v>
+        <v>153127</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>117952</v>
+        <v>117568</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>62298</v>
+        <v>62269</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>175447</v>
+        <v>175162</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>282475</v>
+        <v>284473</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>211361</v>
+        <v>210072</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>506856</v>
+        <v>505746</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>320124</v>
+        <v>320096</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>245532</v>
+        <v>244013</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>557201</v>
+        <v>556305</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>234497</v>
+        <v>234987</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>104819</v>
+        <v>105846</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>350738</v>
+        <v>352353</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>278968</v>
+        <v>279412</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>136107</v>
+        <v>135815</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>408883</v>
+        <v>407619</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1354620</v>
+        <v>1350716</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>879602</v>
+        <v>878135</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2258475</v>
+        <v>2256810</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1441383</v>
+        <v>1441380</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>947525</v>
+        <v>946430</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2366875</v>
+        <v>2369023</v>
       </c>
     </row>
     <row r="40">
